--- a/app/server/static/templates/reports/Dairy_Trailer_Inspection_Template.xlsx
+++ b/app/server/static/templates/reports/Dairy_Trailer_Inspection_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\nr-mals\app\server\static\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{055CFF78-EAD0-4095-A66E-CC99807D9513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044D31B5-0A0B-42D8-B6EA-C1625F72F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{E595DB21-1109-454B-9DC1-BC15D5C6BC2A}"/>
+    <workbookView xWindow="180" yWindow="1275" windowWidth="28695" windowHeight="14520" xr2:uid="{E595DB21-1109-454B-9DC1-BC15D5C6BC2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Truck Inspection Report</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Make</t>
   </si>
   <si>
-    <t>{d.InspectionYear}</t>
-  </si>
-  <si>
     <t>Transport Company</t>
   </si>
   <si>
@@ -77,37 +74,70 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>{d.Reg[i].TransportCompany}</t>
-  </si>
-  <si>
-    <t>{d.Reg[i].Division}</t>
-  </si>
-  <si>
-    <t>{d.Reg[i].TrailerID}</t>
-  </si>
-  <si>
-    <t>{d.Reg[i].TrailerNumber}</t>
-  </si>
-  <si>
-    <t>{d.Reg[i].SerialNumberVIN}</t>
-  </si>
-  <si>
-    <t>{d.Reg[i].LicencePlate}</t>
-  </si>
-  <si>
-    <t>{d.Reg[i].TrailerMake}</t>
-  </si>
-  <si>
-    <t>{d.Reg[i].InspectionDate}</t>
-  </si>
-  <si>
     <t>Inspector ID</t>
   </si>
   <si>
-    <t>{d.Reg[i].InspectorID}</t>
-  </si>
-  <si>
-    <t>{d.Reg[i].InspectionComments}</t>
+    <t>{d.TrailerInspections[i].TrailerID}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i].TrailerNumber}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i].SerialNumberVIN}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i].LicencePlate}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i].TrailerMake}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i].InspectionDate}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i].InspectionComments}</t>
+  </si>
+  <si>
+    <t>{d.CompanyName}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i].InspectionYear}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i].InspectorName}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i].GeographicalDivision}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i+1].GeographicalDivision}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i+1].TrailerID}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i+1].TrailerNumber}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i+1].SerialNumberVIN}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i+1].LicencePlate}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i+1].TrailerMake}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i+1].InspectionYear}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i+1].InspectionDate}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i+1].InspectorName}</t>
+  </si>
+  <si>
+    <t>{d.TrailerInspections[i+1].InspectionComments}</t>
   </si>
 </sst>
 </file>
@@ -184,25 +214,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,17 +567,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C897692-8D26-4666-8CD5-1E5E38E23BC9}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
@@ -563,114 +590,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
